--- a/data/roadway_parameters.xlsx
+++ b/data/roadway_parameters.xlsx
@@ -7,19 +7,18 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="mob" sheetId="1" r:id="rId1"/>
-    <sheet name="inf" sheetId="2" r:id="rId2"/>
-    <sheet name="deriv" sheetId="3" r:id="rId3"/>
+    <sheet name="mobility" sheetId="1" r:id="rId1"/>
+    <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">mob!$A$1:$C$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$20</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Variable name</t>
   </si>
@@ -28,6 +27,36 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Truck mobility cost per traffic unit (USD/ton-km).</t>
+  </si>
+  <si>
+    <t>coef_a_infrast_cost</t>
+  </si>
+  <si>
+    <t>coef_b_infrast_cost</t>
+  </si>
+  <si>
+    <t>infrast_cost_rpc</t>
+  </si>
+  <si>
+    <t>Shadow price to market price ratio in mobility cost (coeff).</t>
+  </si>
+  <si>
+    <t>Shadow price to market price ratio in infrastructure cost (coeff).</t>
+  </si>
+  <si>
+    <t>Exponential coefficient "a" for infrastructure cost equation (coef). - Warning: equation is in shadow prices unit</t>
+  </si>
+  <si>
+    <t>Coefficient "b" for infrastructure cost equation (coef). - Warning: equation is in shadow prices unit</t>
+  </si>
+  <si>
+    <t>mobility_cost_rpc</t>
+  </si>
+  <si>
+    <t>mobility_cost_tk</t>
   </si>
 </sst>
 </file>
@@ -37,7 +66,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +78,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -93,12 +129,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +444,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,12 +466,30 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7.9441058539857085E-2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.75527694498049602</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
+      <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
@@ -452,7 +507,7 @@
       <c r="B14" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
@@ -480,14 +535,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="92" customWidth="1"/>
+    <col min="3" max="3" width="75.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -502,13 +557,37 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.101935379841288</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>6711.2726088133204</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -530,54 +609,6 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="63.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/roadway_parameters.xlsx
+++ b/data/roadway_parameters.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Variable name</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>mobility_cost_tk</t>
+  </si>
+  <si>
+    <t>net_to_gross_factor</t>
+  </si>
+  <si>
+    <t>Factor to convert (aproximately) net tons to gross tons, based on a full train operation (coef).</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,8 +494,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="12"/>
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
